--- a/cost.xlsx
+++ b/cost.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I577769/Documents/websites/carbon-removal-technologies-potential-cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Google Drive\Dokumente\uni\23Spring\Bachelorarbeit\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DBBC5A8-6C38-C349-B0B9-060FB03BACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2811B834-29DD-4CD3-988E-92BA7AC48808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cost!$A$1:$C$35</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cost!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
   <si>
     <t>tech</t>
   </si>
@@ -62,68 +62,119 @@
     <t>Afforestation</t>
   </si>
   <si>
-    <t>Gorte</t>
-  </si>
-  <si>
     <t>NRC 2015</t>
   </si>
   <si>
-    <t>Fuss</t>
-  </si>
-  <si>
     <t>Enhanced Weathering</t>
   </si>
   <si>
-    <t>Beerling</t>
-  </si>
-  <si>
-    <t>Goll</t>
-  </si>
-  <si>
-    <t>Lackner</t>
-  </si>
-  <si>
-    <t>Knops</t>
-  </si>
-  <si>
     <t>Ocean Fertilization</t>
   </si>
   <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Gattuso</t>
-  </si>
-  <si>
     <t>Soil Sequestration</t>
   </si>
   <si>
-    <t>Bossio</t>
-  </si>
-  <si>
-    <t>Chambers</t>
-  </si>
-  <si>
     <t>NASEM 2018</t>
   </si>
   <si>
-    <t>Fuentes-George</t>
-  </si>
-  <si>
     <t>NASEM 2022</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>House 2011</t>
+  </si>
+  <si>
+    <t>Socolow 2011</t>
+  </si>
+  <si>
+    <t>Mazzotti 2013</t>
+  </si>
+  <si>
+    <t>Zeman 2014</t>
+  </si>
+  <si>
+    <t>Holmes and Keith 2012</t>
+  </si>
+  <si>
+    <t>Keith 2018</t>
+  </si>
+  <si>
+    <t>Kulkarni and Sholl 2012</t>
+  </si>
+  <si>
+    <t>Keith 2006</t>
+  </si>
+  <si>
+    <t>Climeworks</t>
+  </si>
+  <si>
+    <t>Nemet and Brandt 2012</t>
+  </si>
+  <si>
+    <t>NASEM 2019</t>
+  </si>
+  <si>
+    <t>NASEM 2020</t>
+  </si>
+  <si>
+    <t>NASEM 2021</t>
+  </si>
+  <si>
+    <t>Stolaroff 2008</t>
+  </si>
+  <si>
+    <t>Gorte 2009</t>
+  </si>
+  <si>
+    <t>Fuss 2018</t>
+  </si>
+  <si>
+    <t>Beerling 2018</t>
+  </si>
+  <si>
+    <t>Goll 2021</t>
+  </si>
+  <si>
+    <t>Lackner 1997</t>
+  </si>
+  <si>
+    <t>Knops 2021</t>
+  </si>
+  <si>
+    <t>Harrison 2013</t>
+  </si>
+  <si>
+    <t>Jones 2014</t>
+  </si>
+  <si>
+    <t>Gattuso 2021</t>
+  </si>
+  <si>
+    <t>Bossio 2020</t>
+  </si>
+  <si>
+    <t>Chambers 2016</t>
+  </si>
+  <si>
+    <t>Fuentes-George 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,8 +240,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:C35" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C35" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:C50" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C50" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{373C9060-501C-8943-9598-B36D766BCF83}" uniqueName="1" name="tech" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F1F35093-7134-0E4E-B004-3E087EBED456}" uniqueName="2" name="price" queryTableFieldId="2"/>
@@ -497,18 +548,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A9080D-411C-4343-8F82-CF55825FB29E}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,381 +572,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>494</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>129</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="B11">
         <v>480</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
       <c r="B13">
         <v>500</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
       </c>
       <c r="B14">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
       </c>
       <c r="B16">
         <v>600</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
       </c>
       <c r="B17">
         <v>578</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
       </c>
       <c r="B18">
         <v>70</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
       </c>
       <c r="B19">
         <v>24</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
       </c>
       <c r="B20">
         <v>123</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
       <c r="B21">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
       </c>
       <c r="B22">
         <v>200</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>457</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3.44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>11.34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>6.76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>641</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>528</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>309</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>336</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>165</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>600</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>457</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>230</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29">
-        <v>3.44</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30">
-        <v>11.34</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>877</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>80</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>6.76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>506</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -909,7 +1128,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Google Drive\Dokumente\uni\23Spring\Bachelorarbeit\Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2811B834-29DD-4CD3-988E-92BA7AC48808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B928A-FD45-40ED-929C-B5B0DDC84AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
+    <workbookView xWindow="27675" yWindow="2385" windowWidth="38385" windowHeight="18435" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cost!$A$1:$C$50</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cost!$A$1:$C$63</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t>tech</t>
   </si>
@@ -113,15 +113,6 @@
     <t>Nemet and Brandt 2012</t>
   </si>
   <si>
-    <t>NASEM 2019</t>
-  </si>
-  <si>
-    <t>NASEM 2020</t>
-  </si>
-  <si>
-    <t>NASEM 2021</t>
-  </si>
-  <si>
     <t>Stolaroff 2008</t>
   </si>
   <si>
@@ -159,6 +150,27 @@
   </si>
   <si>
     <t>Fuentes-George 2017</t>
+  </si>
+  <si>
+    <t>IEA</t>
+  </si>
+  <si>
+    <t>Carbon Engineering</t>
+  </si>
+  <si>
+    <t>Lackner and Azarabadi 2021</t>
+  </si>
+  <si>
+    <t>BECCS</t>
+  </si>
+  <si>
+    <t>Brack 2020</t>
+  </si>
+  <si>
+    <t>IPCC 2018</t>
+  </si>
+  <si>
+    <t>Langholtz 2020</t>
   </si>
 </sst>
 </file>
@@ -240,8 +252,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:C50" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C50" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:C63" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C63" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{373C9060-501C-8943-9598-B36D766BCF83}" uniqueName="1" name="tech" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F1F35093-7134-0E4E-B004-3E087EBED456}" uniqueName="2" name="price" queryTableFieldId="2"/>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A9080D-411C-4343-8F82-CF55825FB29E}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,7 +592,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +603,7 @@
         <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +614,7 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -668,7 +680,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,7 +691,7 @@
         <v>480</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,7 +702,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +713,7 @@
         <v>500</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +724,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +735,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,7 +746,7 @@
         <v>600</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,7 +757,7 @@
         <v>578</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +768,7 @@
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,7 +790,7 @@
         <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +801,7 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +812,7 @@
         <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +834,7 @@
         <v>457</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +845,7 @@
         <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,7 +867,7 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +878,7 @@
         <v>3.44</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,7 +889,7 @@
         <v>11.34</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,179 +948,322 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35">
         <v>1000</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36">
         <v>641</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37">
         <v>528</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
       <c r="B38">
         <v>309</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39">
         <v>336</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
       <c r="B40">
         <v>83</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
       <c r="B41">
         <v>82</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42">
         <v>60</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>24</v>
+      <c r="C42" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>10</v>
       </c>
       <c r="B43">
         <v>165</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44">
         <v>600</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45">
         <v>200</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46">
         <v>60</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47">
         <v>89</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48">
         <v>877</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>21</v>
+      <c r="C48" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49">
         <v>156</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>22</v>
+      <c r="C49" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50">
         <v>506</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>540</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>340</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>232</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>500</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>300</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>250</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>137</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B928A-FD45-40ED-929C-B5B0DDC84AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E301E042-4AA2-4D16-93D7-605D39C6B6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27675" yWindow="2385" windowWidth="38385" windowHeight="18435" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
+    <workbookView xWindow="5025" yWindow="1620" windowWidth="38385" windowHeight="18435" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">cost!$A$1:$C$63</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t>tech</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Langholtz 2020</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -212,14 +215,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -241,23 +246,25 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{5D36B5C1-6BEC-E348-AFD8-FE3CC5E2E65E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="5" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="tech" tableColumnId="1"/>
       <queryTableField id="2" name="price" tableColumnId="2"/>
       <queryTableField id="3" name="Source" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:C63" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C63" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{373C9060-501C-8943-9598-B36D766BCF83}" uniqueName="1" name="tech" queryTableFieldId="1" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}" name="Table_cost" displayName="Table_cost" ref="A1:D63" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D63" xr:uid="{D9FD96A0-84F3-5046-B58E-579B4267A792}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{373C9060-501C-8943-9598-B36D766BCF83}" uniqueName="1" name="tech" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F1F35093-7134-0E4E-B004-3E087EBED456}" uniqueName="2" name="price" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{AE0C530D-C91F-AC43-86AA-4013C638E9E9}" uniqueName="3" name="Source" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{AE0C530D-C91F-AC43-86AA-4013C638E9E9}" uniqueName="3" name="Source" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4B7C2181-91A4-4F39-BA65-62F9A840B8B5}" uniqueName="4" name="Column1" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A9080D-411C-4343-8F82-CF55825FB29E}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,7 +580,7 @@
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +590,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -595,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -606,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -617,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -639,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -649,8 +659,12 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>AVERAGE(B3:B10)</f>
+        <v>97.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -661,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -672,7 +686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -682,8 +696,12 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>AVERAGE(B10:B22)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -694,7 +712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -705,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -716,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -727,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -738,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -749,7 +767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -760,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -771,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -782,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -793,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -804,7 +822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -815,7 +833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -825,8 +843,12 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f>AVERAGE(B23:B25)</f>
+        <v>235.66666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -837,7 +859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -848,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -859,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -870,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -881,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -892,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -902,8 +924,12 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>AVERAGE(B26:B30)</f>
+        <v>44.956000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -914,7 +940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -925,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -935,8 +961,12 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>AVERAGE(B31:B34,B23:B25)</f>
+        <v>114.82285714285715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -947,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -958,7 +988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -969,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -980,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1024,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1064,12 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f>AVERAGE(B35:B55)</f>
+        <v>352.28571428571428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1057,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1177,92 +1211,96 @@
       <c r="C55" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="G55">
+        <f>AVERAGE(B56:B63)</f>
+        <v>147.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>37</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>37</v>
       </c>
       <c r="B57">
         <v>300</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58">
         <v>50</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>37</v>
       </c>
       <c r="B59">
         <v>250</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>37</v>
       </c>
       <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>37</v>
       </c>
       <c r="B61">
         <v>200</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62">
         <v>42</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>37</v>
       </c>
       <c r="B63">
         <v>137</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>40</v>
       </c>
     </row>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thimo Merke\Documents\carbon-removal-technologies-potential-cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E301E042-4AA2-4D16-93D7-605D39C6B6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5753D7-8742-4515-9E2E-FAB1979C3881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1620" windowWidth="38385" windowHeight="18435" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
+    <workbookView xWindow="20460" yWindow="1425" windowWidth="27000" windowHeight="18435" xr2:uid="{4365A42F-3778-7F49-9C3F-9D1A66BDD8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>NRC 2015</t>
   </si>
   <si>
-    <t>Enhanced Weathering</t>
-  </si>
-  <si>
     <t>Ocean Fertilization</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Enhanced Mineralization</t>
   </si>
 </sst>
 </file>
@@ -195,15 +195,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,12 +217,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A9080D-411C-4343-8F82-CF55825FB29E}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,7 +650,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +661,7 @@
         <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +672,7 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -660,8 +708,8 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(B3:B10)</f>
-        <v>97.0625</v>
+        <f>AVERAGE(B3:B9)</f>
+        <v>103.78571428571429</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,386 +731,399 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(B10:B22)</f>
+        <f>AVERAGE(B15:B27)</f>
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>3.44</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>500</v>
+        <v>11.34</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4">
+        <v>480</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4">
+        <v>500</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>600</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>600</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4">
         <v>578</v>
       </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="G23">
+        <f>AVERAGE(B28:B30)</f>
+        <v>235.66666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
         <v>200</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23">
-        <f>AVERAGE(B23:B25)</f>
-        <v>235.66666666666666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>457</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>3.44</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>11.34</v>
+        <v>457</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="G30">
-        <f>AVERAGE(B26:B30)</f>
+        <f>AVERAGE(B10:B14)</f>
         <v>44.956000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <f>AVERAGE(B31:B34,B23:B25)</f>
+        <f>AVERAGE(B31:B34,B28:B30)</f>
         <v>114.82285714285715</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>6.76</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>1000</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>641</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>528</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>336</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42">
         <f>AVERAGE(B35:B55)</f>
@@ -1071,145 +1132,145 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>600</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>877</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>506</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>540</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>500</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <f>AVERAGE(B56:B63)</f>
@@ -1218,90 +1279,90 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62">
         <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
